--- a/Экономика/2.1. Определение годовых эксплуатационных расходов при ручном решении задачи.xlsx
+++ b/Экономика/2.1. Определение годовых эксплуатационных расходов при ручном решении задачи.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="10">
   <si>
     <t>tчр</t>
   </si>
@@ -913,14 +913,19 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
+        <row r="19">
+          <cell r="G19">
+            <v>5</v>
+          </cell>
+        </row>
         <row r="20">
           <cell r="G20">
-            <v>2500</v>
+            <v>10000</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1216,10 +1221,13 @@
   <dimension ref="A1:W15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="U1" t="s">
@@ -1230,7 +1238,19 @@
       </c>
       <c r="W1" s="4">
         <f>[1]Лист1!G20</f>
-        <v>2500</v>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="U2" t="s">
+        <v>8</v>
+      </c>
+      <c r="V2" t="s">
+        <v>1</v>
+      </c>
+      <c r="W2" s="4">
+        <f>[1]Лист1!G19</f>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
@@ -1242,7 +1262,7 @@
       </c>
       <c r="C4" s="3">
         <f>C7</f>
-        <v>171954389.9411765</v>
+        <v>687817559.76470602</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
@@ -1271,7 +1291,7 @@
       </c>
       <c r="C7" s="3">
         <f>C8*C9*C10*(1+C11)*(1+C12)*(1+C13)</f>
-        <v>171954389.9411765</v>
+        <v>687817559.76470602</v>
       </c>
       <c r="F7" s="1"/>
       <c r="K7" s="1"/>
@@ -1283,7 +1303,8 @@
       <c r="B8" t="s">
         <v>1</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="4">
+        <f>W2</f>
         <v>5</v>
       </c>
       <c r="F8" s="1"/>
@@ -1298,7 +1319,7 @@
       </c>
       <c r="C9" s="4">
         <f>W1</f>
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="F9" s="1"/>
       <c r="K9" s="1"/>
